--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="108">
   <si>
     <t>Doi</t>
   </si>
@@ -411,6 +411,126 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,     Christian%Kronborg%null%1,     Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Frail older adults are predisposed to multiple comorbidities and adverse events.
+ Recent interventional studies have shown that frailty can be improved and managed.
+ In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
+Methods
+id="Par2"&gt;This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
+ Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
+ Improvement in frailty scores was the primary outcome.
+ Secondary outcomes included improvements in physical performance and mental health.
+ The measurements were performed at baseline, 1 month, 3 months, and 6 months.
+Results
+id="Par3"&gt;At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
+ Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
+Conclusions
+id="Par4"&gt;The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
+Trial registration
+id="Par5"&gt;Retrospectively registered at ClinicalTrials.
+gov (identifier: NCT03477097); registration date: March 26, 2018.
+</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,     Shin-Chang%Su%maxmax0220@hotmail.com%1,     Chun-Wei%Chen%chunwei.peter@gmail.com%1,     Yaw-Wen%Kang%castle.kang@gmail.com%1,     Ming-Hsia%Hu%mhh@ntu.edu.tw%1,     Li-Lin%Hsu%llh@firdi.org.tw%1,     Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,     Likwang%Chen%likwang@nhri.edu.tw%1,     Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,     Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,     Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,     Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Frail older adults are predisposed to multiple comorbidities and adverse events.
+ Recent interventional studies have shown that frailty can be improved and managed.
+ In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
+Methods
+This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
+ Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
+ Improvement in frailty scores was the primary outcome.
+ Secondary outcomes included improvements in physical performance and mental health.
+ The measurements were performed at baseline, 1 month, 3 months, and 6 months.
+Results
+id="Par3"&gt;At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
+ Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
+Conclusions
+id="Par4"&gt;The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
+Trial registration
+id="Par5"&gt;Retrospectively registered at ClinicalTrials.
+gov (identifier: NCT03477097); registration date: March 26, 2018.
+</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,      Shin-Chang%Su%maxmax0220@hotmail.com%1,      Chun-Wei%Chen%chunwei.peter@gmail.com%1,      Yaw-Wen%Kang%castle.kang@gmail.com%1,      Ming-Hsia%Hu%mhh@ntu.edu.tw%1,      Li-Lin%Hsu%llh@firdi.org.tw%1,      Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,      Likwang%Chen%likwang@nhri.edu.tw%1,      Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,      Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,      Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,      Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Frail older adults are predisposed to multiple comorbidities and adverse events.
+ Recent interventional studies have shown that frailty can be improved and managed.
+ In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
+Methods
+This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
+ Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
+ Improvement in frailty scores was the primary outcome.
+ Secondary outcomes included improvements in physical performance and mental health.
+ The measurements were performed at baseline, 1 month, 3 months, and 6 months.
+Results
+At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
+ Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
+Conclusions
+id="Par4"&gt;The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
+Trial registration
+id="Par5"&gt;Retrospectively registered at ClinicalTrials.
+gov (identifier: NCT03477097); registration date: March 26, 2018.
+</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,       Shin-Chang%Su%maxmax0220@hotmail.com%1,       Chun-Wei%Chen%chunwei.peter@gmail.com%1,       Yaw-Wen%Kang%castle.kang@gmail.com%1,       Ming-Hsia%Hu%mhh@ntu.edu.tw%1,       Li-Lin%Hsu%llh@firdi.org.tw%1,       Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,       Likwang%Chen%likwang@nhri.edu.tw%1,       Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,       Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,       Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,       Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Frail older adults are predisposed to multiple comorbidities and adverse events.
+ Recent interventional studies have shown that frailty can be improved and managed.
+ In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
+Methods
+This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
+ Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
+ Improvement in frailty scores was the primary outcome.
+ Secondary outcomes included improvements in physical performance and mental health.
+ The measurements were performed at baseline, 1 month, 3 months, and 6 months.
+Results
+At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
+ Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
+Conclusions
+The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
+Trial registration
+id="Par5"&gt;Retrospectively registered at ClinicalTrials.
+gov (identifier: NCT03477097); registration date: March 26, 2018.
+</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,        Shin-Chang%Su%maxmax0220@hotmail.com%1,        Chun-Wei%Chen%chunwei.peter@gmail.com%1,        Yaw-Wen%Kang%castle.kang@gmail.com%1,        Ming-Hsia%Hu%mhh@ntu.edu.tw%1,        Li-Lin%Hsu%llh@firdi.org.tw%1,        Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,        Likwang%Chen%likwang@nhri.edu.tw%1,        Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,        Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,        Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,        Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Frail older adults are predisposed to multiple comorbidities and adverse events.
+ Recent interventional studies have shown that frailty can be improved and managed.
+ In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
+Methods
+This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
+ Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
+ Improvement in frailty scores was the primary outcome.
+ Secondary outcomes included improvements in physical performance and mental health.
+ The measurements were performed at baseline, 1 month, 3 months, and 6 months.
+Results
+At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
+ Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
+Conclusions
+The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
+Trial registration
+Retrospectively registered at ClinicalTrials.
+gov (identifier: NCT03477097); registration date: March 26, 2018.
+</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,         Shin-Chang%Su%maxmax0220@hotmail.com%1,         Chun-Wei%Chen%chunwei.peter@gmail.com%1,         Yaw-Wen%Kang%castle.kang@gmail.com%1,         Ming-Hsia%Hu%mhh@ntu.edu.tw%1,         Li-Lin%Hsu%llh@firdi.org.tw%1,         Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,         Likwang%Chen%likwang@nhri.edu.tw%1,         Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,         Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,         Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,         Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
   </si>
 </sst>
 </file>
@@ -832,10 +952,10 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="98">
   <si>
     <t>Doi</t>
   </si>
@@ -411,126 +411,6 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,     Christian%Kronborg%null%1,     Lis%Puggaard%null%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Frail older adults are predisposed to multiple comorbidities and adverse events.
- Recent interventional studies have shown that frailty can be improved and managed.
- In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
-Methods
-id="Par2"&gt;This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
- Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
- Improvement in frailty scores was the primary outcome.
- Secondary outcomes included improvements in physical performance and mental health.
- The measurements were performed at baseline, 1 month, 3 months, and 6 months.
-Results
-id="Par3"&gt;At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
- Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
-Conclusions
-id="Par4"&gt;The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
-Trial registration
-id="Par5"&gt;Retrospectively registered at ClinicalTrials.
-gov (identifier: NCT03477097); registration date: March 26, 2018.
-</t>
-  </si>
-  <si>
-    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,     Shin-Chang%Su%maxmax0220@hotmail.com%1,     Chun-Wei%Chen%chunwei.peter@gmail.com%1,     Yaw-Wen%Kang%castle.kang@gmail.com%1,     Ming-Hsia%Hu%mhh@ntu.edu.tw%1,     Li-Lin%Hsu%llh@firdi.org.tw%1,     Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,     Likwang%Chen%likwang@nhri.edu.tw%1,     Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,     Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,     Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,     Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Frail older adults are predisposed to multiple comorbidities and adverse events.
- Recent interventional studies have shown that frailty can be improved and managed.
- In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
-Methods
-This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
- Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
- Improvement in frailty scores was the primary outcome.
- Secondary outcomes included improvements in physical performance and mental health.
- The measurements were performed at baseline, 1 month, 3 months, and 6 months.
-Results
-id="Par3"&gt;At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
- Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
-Conclusions
-id="Par4"&gt;The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
-Trial registration
-id="Par5"&gt;Retrospectively registered at ClinicalTrials.
-gov (identifier: NCT03477097); registration date: March 26, 2018.
-</t>
-  </si>
-  <si>
-    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,      Shin-Chang%Su%maxmax0220@hotmail.com%1,      Chun-Wei%Chen%chunwei.peter@gmail.com%1,      Yaw-Wen%Kang%castle.kang@gmail.com%1,      Ming-Hsia%Hu%mhh@ntu.edu.tw%1,      Li-Lin%Hsu%llh@firdi.org.tw%1,      Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,      Likwang%Chen%likwang@nhri.edu.tw%1,      Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,      Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,      Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,      Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Frail older adults are predisposed to multiple comorbidities and adverse events.
- Recent interventional studies have shown that frailty can be improved and managed.
- In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
-Methods
-This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
- Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
- Improvement in frailty scores was the primary outcome.
- Secondary outcomes included improvements in physical performance and mental health.
- The measurements were performed at baseline, 1 month, 3 months, and 6 months.
-Results
-At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
- Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
-Conclusions
-id="Par4"&gt;The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
-Trial registration
-id="Par5"&gt;Retrospectively registered at ClinicalTrials.
-gov (identifier: NCT03477097); registration date: March 26, 2018.
-</t>
-  </si>
-  <si>
-    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,       Shin-Chang%Su%maxmax0220@hotmail.com%1,       Chun-Wei%Chen%chunwei.peter@gmail.com%1,       Yaw-Wen%Kang%castle.kang@gmail.com%1,       Ming-Hsia%Hu%mhh@ntu.edu.tw%1,       Li-Lin%Hsu%llh@firdi.org.tw%1,       Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,       Likwang%Chen%likwang@nhri.edu.tw%1,       Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,       Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,       Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,       Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Frail older adults are predisposed to multiple comorbidities and adverse events.
- Recent interventional studies have shown that frailty can be improved and managed.
- In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
-Methods
-This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
- Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
- Improvement in frailty scores was the primary outcome.
- Secondary outcomes included improvements in physical performance and mental health.
- The measurements were performed at baseline, 1 month, 3 months, and 6 months.
-Results
-At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
- Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
-Conclusions
-The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
-Trial registration
-id="Par5"&gt;Retrospectively registered at ClinicalTrials.
-gov (identifier: NCT03477097); registration date: March 26, 2018.
-</t>
-  </si>
-  <si>
-    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,        Shin-Chang%Su%maxmax0220@hotmail.com%1,        Chun-Wei%Chen%chunwei.peter@gmail.com%1,        Yaw-Wen%Kang%castle.kang@gmail.com%1,        Ming-Hsia%Hu%mhh@ntu.edu.tw%1,        Li-Lin%Hsu%llh@firdi.org.tw%1,        Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,        Likwang%Chen%likwang@nhri.edu.tw%1,        Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,        Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,        Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,        Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Frail older adults are predisposed to multiple comorbidities and adverse events.
- Recent interventional studies have shown that frailty can be improved and managed.
- In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
-Methods
-This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
- Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
- Improvement in frailty scores was the primary outcome.
- Secondary outcomes included improvements in physical performance and mental health.
- The measurements were performed at baseline, 1 month, 3 months, and 6 months.
-Results
-At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
- Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
-Conclusions
-The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
-Trial registration
-Retrospectively registered at ClinicalTrials.
-gov (identifier: NCT03477097); registration date: March 26, 2018.
-</t>
-  </si>
-  <si>
-    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,         Shin-Chang%Su%maxmax0220@hotmail.com%1,         Chun-Wei%Chen%chunwei.peter@gmail.com%1,         Yaw-Wen%Kang%castle.kang@gmail.com%1,         Ming-Hsia%Hu%mhh@ntu.edu.tw%1,         Li-Lin%Hsu%llh@firdi.org.tw%1,         Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,         Likwang%Chen%likwang@nhri.edu.tw%1,         Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,         Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,         Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,         Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
   </si>
 </sst>
 </file>
@@ -952,10 +832,10 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="111">
   <si>
     <t>Doi</t>
   </si>
@@ -411,6 +411,45 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,     Christian%Kronborg%null%1,     Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,     Tengku%Aizan Hamid%NULL%1,     Mohammad Nazrul%Hakim%NULL%1,     Reza%Chaman%NULL%1,     Seyed Abbas%Mousavi%NULL%1,     Lim%Poh Hin%NULL%1,     Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%2,      Ann M.%Swartz%null%1,      Kevin G.%Keenan%null%1,      Amy E.%Harley%null%1,      Razia%Azen%null%1,      Scott J.%Strath%null%1,  Christopher J.%Dondzila%null%0,  Ann M.%Swartz%null%1,  Kevin G.%Keenan%null%1,  Amy E.%Harley%null%1,  Razia%Azen%null%1,  Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,     Shunsuke%Ohki%NULL%1,     Hirokazu%Takayama%NULL%1,     Yuji%Kobayashi%NULL%1,     Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,     Shin-Chang%Su%maxmax0220@hotmail.com%1,     Chun-Wei%Chen%chunwei.peter@gmail.com%1,     Yaw-Wen%Kang%castle.kang@gmail.com%1,     Ming-Hsia%Hu%mhh@ntu.edu.tw%1,     Li-Lin%Hsu%llh@firdi.org.tw%1,     Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,     Likwang%Chen%likwang@nhri.edu.tw%1,     Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,     Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,     Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,     Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,   Close%Jacqueline%coreGivesNoEmail%1,   Cook%Wendy L.%coreGivesNoEmail%1,   Donaldson%Meghan G.%coreGivesNoEmail%1,   Graf%Peter%coreGivesNoEmail%1,   Khan%Karim M.%coreGivesNoEmail%1,   Liu-Ambrose%Teresa%coreGivesNoEmail%1,   Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,     Yasuyoshi%Asakawa%NULL%1,     Hideaki%Ishibashi%NULL%1,     Hiroaki%Fujita%NULL%1,     Tomoyuki%Arai%NULL%1,     Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,     Polly M.%McGuigan%NULL%2,     Polly M.%McGuigan%NULL%0,     Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,     Evdokia%Billis%NULL%1,     Elias%Tsepis%NULL%1,     Zacharias%Dimitriadis%NULL%1,     Charalampos%Matzaroglou%NULL%1,     Minos%Tyllianakis%NULL%1,     Elias%Panagiotopoulos%NULL%1,     John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%2,      Christian%Kronborg%null%1,      Lis%Puggaard%null%1,  Sonja%Vestergaard%null%0,  Christian%Kronborg%null%1,  Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -742,6 +781,9 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -757,7 +799,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -767,6 +809,9 @@
       </c>
       <c r="H2" t="s">
         <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +828,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -793,6 +838,9 @@
       </c>
       <c r="H3" t="s">
         <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -809,7 +857,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -819,6 +867,9 @@
       </c>
       <c r="H4" t="s">
         <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -835,7 +886,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -845,6 +896,9 @@
       </c>
       <c r="H5" t="s">
         <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -872,6 +926,9 @@
       <c r="H6" t="s">
         <v>49</v>
       </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -898,6 +955,9 @@
       <c r="H7" t="s">
         <v>49</v>
       </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -924,6 +984,9 @@
       <c r="H8" t="s">
         <v>49</v>
       </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -950,6 +1013,9 @@
       <c r="H9" t="s">
         <v>49</v>
       </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -965,16 +1031,19 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
         <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -991,7 +1060,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1001,6 +1070,9 @@
       </c>
       <c r="H11" t="s">
         <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -1028,6 +1100,9 @@
       <c r="H12" t="s">
         <v>49</v>
       </c>
+      <c r="I12" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -1054,6 +1129,9 @@
       <c r="H13" t="s">
         <v>49</v>
       </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1069,7 +1147,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1079,6 +1157,9 @@
       </c>
       <c r="H14" t="s">
         <v>59</v>
+      </c>
+      <c r="I14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1095,7 +1176,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1105,6 +1186,9 @@
       </c>
       <c r="H15" t="s">
         <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -1121,7 +1205,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1131,6 +1215,9 @@
       </c>
       <c r="H16" t="s">
         <v>68</v>
+      </c>
+      <c r="I16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="138">
   <si>
     <t>Doi</t>
   </si>
@@ -450,6 +450,87 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%2,      Christian%Kronborg%null%1,      Lis%Puggaard%null%1,  Sonja%Vestergaard%null%0,  Christian%Kronborg%null%1,  Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,      Tengku%Aizan Hamid%NULL%1,      Mohammad Nazrul%Hakim%NULL%1,      Reza%Chaman%NULL%1,      Seyed Abbas%Mousavi%NULL%1,      Lim%Poh Hin%NULL%1,      Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,       Ann M.%Swartz%null%1,       Kevin G.%Keenan%null%1,       Amy E.%Harley%null%1,       Razia%Azen%null%1,       Scott J.%Strath%null%1,   Christopher J.%Dondzila%null%1,   Ann M.%Swartz%null%1,   Kevin G.%Keenan%null%1,   Amy E.%Harley%null%1,   Razia%Azen%null%1,   Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,      Shunsuke%Ohki%NULL%1,      Hirokazu%Takayama%NULL%1,      Yuji%Kobayashi%NULL%1,      Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,      Shin-Chang%Su%maxmax0220@hotmail.com%1,      Chun-Wei%Chen%chunwei.peter@gmail.com%1,      Yaw-Wen%Kang%castle.kang@gmail.com%1,      Ming-Hsia%Hu%mhh@ntu.edu.tw%1,      Li-Lin%Hsu%llh@firdi.org.tw%1,      Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,      Likwang%Chen%likwang@nhri.edu.tw%1,      Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,      Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,      Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,      Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,    Close%Jacqueline%coreGivesNoEmail%1,    Cook%Wendy L.%coreGivesNoEmail%1,    Donaldson%Meghan G.%coreGivesNoEmail%1,    Graf%Peter%coreGivesNoEmail%1,    Khan%Karim M.%coreGivesNoEmail%1,    Liu-Ambrose%Teresa%coreGivesNoEmail%1,    Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,      Yasuyoshi%Asakawa%NULL%1,      Hideaki%Ishibashi%NULL%1,      Hiroaki%Fujita%NULL%1,      Tomoyuki%Arai%NULL%1,      Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,      Polly M.%McGuigan%NULL%2,      Polly M.%McGuigan%NULL%0,      Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,      Evdokia%Billis%NULL%1,      Elias%Tsepis%NULL%1,      Zacharias%Dimitriadis%NULL%1,      Charalampos%Matzaroglou%NULL%1,      Minos%Tyllianakis%NULL%1,      Elias%Panagiotopoulos%NULL%1,      John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,       Christian%Kronborg%null%1,       Lis%Puggaard%null%1,   Sonja%Vestergaard%null%1,   Christian%Kronborg%null%1,   Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,       Tengku%Aizan Hamid%NULL%1,       Mohammad Nazrul%Hakim%NULL%1,       Reza%Chaman%NULL%1,       Seyed Abbas%Mousavi%NULL%1,       Lim%Poh Hin%NULL%1,       Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,        Ann M.%Swartz%null%1,        Kevin G.%Keenan%null%1,        Amy E.%Harley%null%1,        Razia%Azen%null%1,        Scott J.%Strath%null%1,    Christopher J.%Dondzila%null%1,    Ann M.%Swartz%null%1,    Kevin G.%Keenan%null%1,    Amy E.%Harley%null%1,    Razia%Azen%null%1,    Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,       Shunsuke%Ohki%NULL%1,       Hirokazu%Takayama%NULL%1,       Yuji%Kobayashi%NULL%1,       Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,       Shin-Chang%Su%maxmax0220@hotmail.com%1,       Chun-Wei%Chen%chunwei.peter@gmail.com%1,       Yaw-Wen%Kang%castle.kang@gmail.com%1,       Ming-Hsia%Hu%mhh@ntu.edu.tw%1,       Li-Lin%Hsu%llh@firdi.org.tw%1,       Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,       Likwang%Chen%likwang@nhri.edu.tw%1,       Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,       Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,       Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,       Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,     Close%Jacqueline%coreGivesNoEmail%1,     Cook%Wendy L.%coreGivesNoEmail%1,     Donaldson%Meghan G.%coreGivesNoEmail%1,     Graf%Peter%coreGivesNoEmail%1,     Khan%Karim M.%coreGivesNoEmail%1,     Liu-Ambrose%Teresa%coreGivesNoEmail%1,     Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,       Yasuyoshi%Asakawa%NULL%1,       Hideaki%Ishibashi%NULL%1,       Hiroaki%Fujita%NULL%1,       Tomoyuki%Arai%NULL%1,       Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,       Polly M.%McGuigan%NULL%2,       Polly M.%McGuigan%NULL%0,       Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,       Evdokia%Billis%NULL%1,       Elias%Tsepis%NULL%1,       Zacharias%Dimitriadis%NULL%1,       Charalampos%Matzaroglou%NULL%1,       Minos%Tyllianakis%NULL%1,       Elias%Panagiotopoulos%NULL%1,       John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,        Christian%Kronborg%null%1,        Lis%Puggaard%null%1,    Sonja%Vestergaard%null%1,    Christian%Kronborg%null%1,    Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,        Tengku%Aizan Hamid%NULL%1,        Mohammad Nazrul%Hakim%NULL%1,        Reza%Chaman%NULL%1,        Seyed Abbas%Mousavi%NULL%1,        Lim%Poh Hin%NULL%1,        Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,         Ann M.%Swartz%null%1,         Kevin G.%Keenan%null%1,         Amy E.%Harley%null%1,         Razia%Azen%null%1,         Scott J.%Strath%null%1,     Christopher J.%Dondzila%null%1,     Ann M.%Swartz%null%1,     Kevin G.%Keenan%null%1,     Amy E.%Harley%null%1,     Razia%Azen%null%1,     Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,        Shunsuke%Ohki%NULL%1,        Hirokazu%Takayama%NULL%1,        Yuji%Kobayashi%NULL%1,        Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,        Shin-Chang%Su%maxmax0220@hotmail.com%1,        Chun-Wei%Chen%chunwei.peter@gmail.com%1,        Yaw-Wen%Kang%castle.kang@gmail.com%1,        Ming-Hsia%Hu%mhh@ntu.edu.tw%1,        Li-Lin%Hsu%llh@firdi.org.tw%1,        Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,        Likwang%Chen%likwang@nhri.edu.tw%1,        Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,        Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,        Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,        Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,      Close%Jacqueline%coreGivesNoEmail%1,      Cook%Wendy L.%coreGivesNoEmail%1,      Donaldson%Meghan G.%coreGivesNoEmail%1,      Graf%Peter%coreGivesNoEmail%1,      Khan%Karim M.%coreGivesNoEmail%1,      Liu-Ambrose%Teresa%coreGivesNoEmail%1,      Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,        Yasuyoshi%Asakawa%NULL%1,        Hideaki%Ishibashi%NULL%1,        Hiroaki%Fujita%NULL%1,        Tomoyuki%Arai%NULL%1,        Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,        Polly M.%McGuigan%NULL%2,        Polly M.%McGuigan%NULL%0,        Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,        Evdokia%Billis%NULL%1,        Elias%Tsepis%NULL%1,        Zacharias%Dimitriadis%NULL%1,        Charalampos%Matzaroglou%NULL%1,        Minos%Tyllianakis%NULL%1,        Elias%Panagiotopoulos%NULL%1,        John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,         Christian%Kronborg%null%1,         Lis%Puggaard%null%1,     Sonja%Vestergaard%null%1,     Christian%Kronborg%null%1,     Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -799,7 +880,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -828,7 +909,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -857,7 +938,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -886,7 +967,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1031,13 +1112,13 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
         <v>49</v>
@@ -1060,7 +1141,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1147,7 +1228,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1176,7 +1257,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1205,7 +1286,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="173">
   <si>
     <t>Doi</t>
   </si>
@@ -531,6 +531,146 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,         Christian%Kronborg%null%1,         Lis%Puggaard%null%1,     Sonja%Vestergaard%null%1,     Christian%Kronborg%null%1,     Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,         Tengku%Aizan Hamid%NULL%1,         Mohammad Nazrul%Hakim%NULL%1,         Reza%Chaman%NULL%1,         Seyed Abbas%Mousavi%NULL%1,         Lim%Poh Hin%NULL%1,         Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,          Ann M.%Swartz%null%1,          Kevin G.%Keenan%null%1,          Amy E.%Harley%null%1,          Razia%Azen%null%1,          Scott J.%Strath%null%1,      Christopher J.%Dondzila%null%1,      Ann M.%Swartz%null%1,      Kevin G.%Keenan%null%1,      Amy E.%Harley%null%1,      Razia%Azen%null%1,      Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,         Shunsuke%Ohki%NULL%1,         Hirokazu%Takayama%NULL%1,         Yuji%Kobayashi%NULL%1,         Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,         Shin-Chang%Su%maxmax0220@hotmail.com%1,         Chun-Wei%Chen%chunwei.peter@gmail.com%1,         Yaw-Wen%Kang%castle.kang@gmail.com%1,         Ming-Hsia%Hu%mhh@ntu.edu.tw%1,         Li-Lin%Hsu%llh@firdi.org.tw%1,         Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,         Likwang%Chen%likwang@nhri.edu.tw%1,         Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,         Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,         Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,         Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>"Promoting physical activity in older people in general practice: ProAct65+ cluster randomised controlled trial"</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1, Denise%Kendrick%xref no email%1, Richard%Morris%xref no email%1, Mark%Griffin%xref no email%1, Deborah%Haworth%xref no email%1, Hannah%Carpenter%xref no email%1, Tahir%Masud%xref no email%1, Dawn A%Skelton%xref no email%1, Susie%Dinan-Young%xref no email%1, Ann%Bowling%xref no email%1, Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>"Core Muscle Strengthening\u2019s Improvement of Balance Performance in Community-Dwelling Older Adults: A Pilot Study"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"To determine the effect of core muscle strengthening on balance in community-dwelling older adults, 24 healthy men and women between 65 and 85 years old were randomized to either exercise (EX; n = 12) or control (CON; n = 12) groups.
+ The exercise group performed a core strengthening home exercise program thrice weekly for 6 wk.
+ Core muscle (curl-up test), functional reach (FR) and Star Excursion Balance Test (SEBT) were assessed at baseline and follow-up.
+ There were no group differences at baseline.
+ At follow-up, EX exhibited significantly greater improvements in curl-up (Cohen\u2019s d = 4.4), FR (1.3), and SEBT (&amp;gt;1.9 for all directions) than CON.
+ The change in curl-up was significantly correlated with the change in FR (r = .
+44, p = .
+03) and SEBT (r &amp;gt; .
+61, p \u2264 .
+002).
+ These results suggest that core strengthening should be part of a comprehensive balance-training program for older adults.
+</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1, Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>"Effects of a Supervised versus an Unsupervised Combined Balance and Strength Training Program on Balance and Muscle Power in Healthy Older Adults: A Randomized Controlled Trial"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"&amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Background:&amp;lt;\/i&amp;gt;&amp;lt;\/b&amp;gt; Losses in lower extremity muscle strength\/power, muscle mass and deficits in static and particularly dynamic balance due to aging are associated with impaired functional performance and an increased fall risk.
+ It has been shown that the combination of balance and strength training (BST) mitigates these age-related deficits.
+ However, it is unresolved whether supervised versus unsupervised BST is equally effective in improving muscle power and balance in older adults.
+ &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Objective:&amp;lt;\/i&amp;gt;&amp;lt;\/b&amp;gt; This study examined the impact of a 12-week BST program followed by 12 weeks of detraining on measures of balance and muscle power in healthy older adults enrolled in supervised (SUP) or unsupervised (UNSUP) training.
+ &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Methods:&amp;lt;\/i&amp;gt;&amp;lt;\/b&amp;gt; Sixty-six older adults (men: 25, women: 41; age 73 \u00b1 4 years) were randomly assigned to a SUP group (2\/week supervised training, 1\/week unsupervised training; n = 22), an UNSUP group (3\/week unsupervised training; n = 22) or a passive control group (CON; n = 22).
+ Static (i.
+e.
+, Romberg Test) and dynamic (i.
+e.
+, 10-meter walk test) steady-state, proactive (i.
+e.
+, Timed Up and Go Test, Functional Reach Test), and reactive balance (e.
+g.
+, Push and Release Test), as well as lower extremity muscle power (i.
+e.
+, Chair Stand Test; Stair Ascent and Descent Test) were tested before and after the active training phase as well as after detraining.
+ &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Results:&amp;lt;\/i&amp;gt;&amp;lt;\/b&amp;gt; Adherence rates to training were 92% for SUP and 97% for UNSUP.
+ BST resulted in significant group \u00d7 time interactions.
+ Post hoc analyses showed, among others, significant training-related improvements for the Romberg Test, stride velocity, Timed Up and Go Test, and Chair Stand Test in favor of the SUP group.
+ Following detraining, significantly enhanced performances (compared to baseline) were still present in 13 variables for the SUP group and in 10 variables for the UNSUP group.
+ &amp;lt;b&amp;gt;&amp;lt;i&amp;gt;Conclusion:&amp;lt;\/i&amp;gt;&amp;lt;\/b&amp;gt; Twelve weeks of BST proved to be safe (no training-related injuries) and feasible (high attendance rates of &amp;gt;90%).
+ Deficits of balance and lower extremity muscle power can be mitigated by BST in healthy older adults.
+ Additionally, supervised as compared to unsupervised BST was more effective.
+ Thus, it is recommended to counteract intrinsic fall risk factors by applying supervised BST programs for older adults.
+</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1, Reto W.%Kressig%xref no email%1, Thomas%Muehlbauer%xref no email%1, Yves J.%Gschwind%xref no email%1, Barbara%Pfenninger%xref no email%1, Othmar%Bruegger%xref no email%1, Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,       Close%Jacqueline%coreGivesNoEmail%1,       Cook%Wendy L.%coreGivesNoEmail%1,       Donaldson%Meghan G.%coreGivesNoEmail%1,       Graf%Peter%coreGivesNoEmail%1,       Khan%Karim M.%coreGivesNoEmail%1,       Liu-Ambrose%Teresa%coreGivesNoEmail%1,       Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,         Yasuyoshi%Asakawa%NULL%1,         Hideaki%Ishibashi%NULL%1,         Hiroaki%Fujita%NULL%1,         Tomoyuki%Arai%NULL%1,         Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>"The Effects of Multidimensional Home-Based Exercise on Functional Performance in Elderly People"</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1, J. E.%Layne%xref no email%1, M. J.%Bernstein%xref no email%1, A.%Nuernberger%xref no email%1, C.%Castaneda%xref no email%1, D.%Kaliton%xref no email%1, J.%Hausdorff%xref no email%1, J. O.%Judge%xref no email%1, D. M.%Buchner%xref no email%1, R.%Roubenoff%xref no email%1, M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-24</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,         Polly M.%McGuigan%NULL%2,         Polly M.%McGuigan%NULL%0,         Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,         Evdokia%Billis%NULL%1,         Elias%Tsepis%NULL%1,         Zacharias%Dimitriadis%NULL%1,         Charalampos%Matzaroglou%NULL%1,         Minos%Tyllianakis%NULL%1,         Elias%Panagiotopoulos%NULL%1,         John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,          Christian%Kronborg%null%1,          Lis%Puggaard%null%1,      Sonja%Vestergaard%null%1,      Christian%Kronborg%null%1,      Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,          Tengku%Aizan Hamid%NULL%1,          Mohammad Nazrul%Hakim%NULL%1,          Reza%Chaman%NULL%1,          Seyed Abbas%Mousavi%NULL%1,          Lim%Poh Hin%NULL%1,          Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,           Ann M.%Swartz%null%1,           Kevin G.%Keenan%null%1,           Amy E.%Harley%null%1,           Razia%Azen%null%1,           Scott J.%Strath%null%1,       Christopher J.%Dondzila%null%1,       Ann M.%Swartz%null%1,       Kevin G.%Keenan%null%1,       Amy E.%Harley%null%1,       Razia%Azen%null%1,       Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,          Shunsuke%Ohki%NULL%1,          Hirokazu%Takayama%NULL%1,          Yuji%Kobayashi%NULL%1,          Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,          Shin-Chang%Su%maxmax0220@hotmail.com%1,          Chun-Wei%Chen%chunwei.peter@gmail.com%1,          Yaw-Wen%Kang%castle.kang@gmail.com%1,          Ming-Hsia%Hu%mhh@ntu.edu.tw%1,          Li-Lin%Hsu%llh@firdi.org.tw%1,          Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,          Likwang%Chen%likwang@nhri.edu.tw%1,          Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,          Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,          Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,          Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,  Denise%Kendrick%xref no email%1,  Richard%Morris%xref no email%1,  Mark%Griffin%xref no email%1,  Deborah%Haworth%xref no email%1,  Hannah%Carpenter%xref no email%1,  Tahir%Masud%xref no email%1,  Dawn A%Skelton%xref no email%1,  Susie%Dinan-Young%xref no email%1,  Ann%Bowling%xref no email%1,  Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,  Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,  Reto W.%Kressig%xref no email%1,  Thomas%Muehlbauer%xref no email%1,  Yves J.%Gschwind%xref no email%1,  Barbara%Pfenninger%xref no email%1,  Othmar%Bruegger%xref no email%1,  Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,        Close%Jacqueline%coreGivesNoEmail%1,        Cook%Wendy L.%coreGivesNoEmail%1,        Donaldson%Meghan G.%coreGivesNoEmail%1,        Graf%Peter%coreGivesNoEmail%1,        Khan%Karim M.%coreGivesNoEmail%1,        Liu-Ambrose%Teresa%coreGivesNoEmail%1,        Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,          Yasuyoshi%Asakawa%NULL%1,          Hideaki%Ishibashi%NULL%1,          Hiroaki%Fujita%NULL%1,          Tomoyuki%Arai%NULL%1,          Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,  J. E.%Layne%xref no email%1,  M. J.%Bernstein%xref no email%1,  A.%Nuernberger%xref no email%1,  C.%Castaneda%xref no email%1,  D.%Kaliton%xref no email%1,  J.%Hausdorff%xref no email%1,  J. O.%Judge%xref no email%1,  D. M.%Buchner%xref no email%1,  R.%Roubenoff%xref no email%1,  M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,          Polly M.%McGuigan%NULL%2,          Polly M.%McGuigan%NULL%0,          Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,          Evdokia%Billis%NULL%1,          Elias%Tsepis%NULL%1,          Zacharias%Dimitriadis%NULL%1,          Charalampos%Matzaroglou%NULL%1,          Minos%Tyllianakis%NULL%1,          Elias%Panagiotopoulos%NULL%1,          John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,           Christian%Kronborg%null%1,           Lis%Puggaard%null%1,       Sonja%Vestergaard%null%1,       Christian%Kronborg%null%1,       Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -880,7 +1020,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -909,7 +1049,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -938,7 +1078,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -967,7 +1107,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -990,22 +1130,22 @@
         <v>42309.0</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="I6" t="s">
         <v>102</v>
@@ -1019,22 +1159,22 @@
         <v>41640.0</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
         <v>102</v>
@@ -1077,22 +1217,22 @@
         <v>42461.0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="I9" t="s">
         <v>102</v>
@@ -1112,7 +1252,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1141,7 +1281,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1164,22 +1304,22 @@
         <v>38018.0</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="I12" t="s">
         <v>102</v>
@@ -1228,7 +1368,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1257,7 +1397,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1286,7 +1426,7 @@
         <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="201">
   <si>
     <t>Doi</t>
   </si>
@@ -671,6 +671,117 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,           Christian%Kronborg%null%1,           Lis%Puggaard%null%1,       Sonja%Vestergaard%null%1,       Christian%Kronborg%null%1,       Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,           Tengku%Aizan Hamid%NULL%1,           Mohammad Nazrul%Hakim%NULL%1,           Reza%Chaman%NULL%1,           Seyed Abbas%Mousavi%NULL%1,           Lim%Poh Hin%NULL%1,           Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,            Ann M.%Swartz%null%1,            Kevin G.%Keenan%null%1,            Amy E.%Harley%null%1,            Razia%Azen%null%1,            Scott J.%Strath%null%1,        Christopher J.%Dondzila%null%1,        Ann M.%Swartz%null%1,        Kevin G.%Keenan%null%1,        Amy E.%Harley%null%1,        Razia%Azen%null%1,        Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,           Shunsuke%Ohki%NULL%1,           Hirokazu%Takayama%NULL%1,           Yuji%Kobayashi%NULL%1,           Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,           Shin-Chang%Su%maxmax0220@hotmail.com%1,           Chun-Wei%Chen%chunwei.peter@gmail.com%1,           Yaw-Wen%Kang%castle.kang@gmail.com%1,           Ming-Hsia%Hu%mhh@ntu.edu.tw%1,           Li-Lin%Hsu%llh@firdi.org.tw%1,           Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,           Likwang%Chen%likwang@nhri.edu.tw%1,           Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,           Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,           Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,           Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,   Denise%Kendrick%xref no email%1,   Richard%Morris%xref no email%1,   Mark%Griffin%xref no email%1,   Deborah%Haworth%xref no email%1,   Hannah%Carpenter%xref no email%1,   Tahir%Masud%xref no email%1,   Dawn A%Skelton%xref no email%1,   Susie%Dinan-Young%xref no email%1,   Ann%Bowling%xref no email%1,   Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,   Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,   Reto W.%Kressig%xref no email%1,   Thomas%Muehlbauer%xref no email%1,   Yves J.%Gschwind%xref no email%1,   Barbara%Pfenninger%xref no email%1,   Othmar%Bruegger%xref no email%1,   Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,         Close%Jacqueline%coreGivesNoEmail%1,         Cook%Wendy L.%coreGivesNoEmail%1,         Donaldson%Meghan G.%coreGivesNoEmail%1,         Graf%Peter%coreGivesNoEmail%1,         Khan%Karim M.%coreGivesNoEmail%1,         Liu-Ambrose%Teresa%coreGivesNoEmail%1,         Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,           Yasuyoshi%Asakawa%NULL%1,           Hideaki%Ishibashi%NULL%1,           Hiroaki%Fujita%NULL%1,           Tomoyuki%Arai%NULL%1,           Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,   J. E.%Layne%xref no email%1,   M. J.%Bernstein%xref no email%1,   A.%Nuernberger%xref no email%1,   C.%Castaneda%xref no email%1,   D.%Kaliton%xref no email%1,   J.%Hausdorff%xref no email%1,   J. O.%Judge%xref no email%1,   D. M.%Buchner%xref no email%1,   R.%Roubenoff%xref no email%1,   M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,           Polly M.%McGuigan%NULL%2,           Polly M.%McGuigan%NULL%0,           Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,           Evdokia%Billis%NULL%1,           Elias%Tsepis%NULL%1,           Zacharias%Dimitriadis%NULL%1,           Charalampos%Matzaroglou%NULL%1,           Minos%Tyllianakis%NULL%1,           Elias%Panagiotopoulos%NULL%1,           John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,            Christian%Kronborg%null%1,            Lis%Puggaard%null%1,        Sonja%Vestergaard%null%1,        Christian%Kronborg%null%1,        Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,            Tengku%Aizan Hamid%NULL%1,            Mohammad Nazrul%Hakim%NULL%1,            Reza%Chaman%NULL%1,            Seyed Abbas%Mousavi%NULL%1,            Lim%Poh Hin%NULL%1,            Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Aims
+The purpose of this study is to investigate whether an in-home, individually tailored intervention is efficacious in promoting increases in physical activity (PA) and improvements in physical functioning (PF) in low-active older adults.
+Methods
+Participants were randomized to two groups for the 8-week intervention.
+ The enhanced physical activity (EPA) group received individualized exercise programming, including personalized step goals and a resistance band training program, and the standard of care (SoC) group received a general activity goal.
+ Pre- and post-intervention PF measures included choice step reaction time, knee extension/flexion strength, hand grip strength, and 8 ft up and go test completion time.
+Results
+Thirty-nine subjects completed this study (74.6 ± 6.4 years).
+ Significant increases in steps/day were observed for both the EPA and SoC groups, although the improvements in the EPA group were significantly higher when including only those who adhered to weekly step goals.
+ Both groups experienced significant PF improvements, albeit greater in the EPA group for the 8 ft up and go test and knee extension strength.
+Conclusion
+A low cost, in-home intervention elicited improvements in both PA and PF.
+ Future research is warranted to expand upon the size and scope of this study, exploring dose thresholds (and time frames) for PA to improve PF and strategies to further bolster adherence rates to maximize intervention benefits.
+</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%0,  Ann M.%Swartz%null%1,  Kevin G.%Keenan%null%1,  Amy E.%Harley%null%1,  Razia%Azen%null%1,  Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,            Shunsuke%Ohki%NULL%1,            Hirokazu%Takayama%NULL%1,            Yuji%Kobayashi%NULL%1,            Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,            Shin-Chang%Su%maxmax0220@hotmail.com%1,            Chun-Wei%Chen%chunwei.peter@gmail.com%1,            Yaw-Wen%Kang%castle.kang@gmail.com%1,            Ming-Hsia%Hu%mhh@ntu.edu.tw%1,            Li-Lin%Hsu%llh@firdi.org.tw%1,            Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,            Likwang%Chen%likwang@nhri.edu.tw%1,            Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,            Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,            Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,            Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,    Denise%Kendrick%xref no email%1,    Richard%Morris%xref no email%1,    Mark%Griffin%xref no email%1,    Deborah%Haworth%xref no email%1,    Hannah%Carpenter%xref no email%1,    Tahir%Masud%xref no email%1,    Dawn A%Skelton%xref no email%1,    Susie%Dinan-Young%xref no email%1,    Ann%Bowling%xref no email%1,    Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,    Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,    Reto W.%Kressig%xref no email%1,    Thomas%Muehlbauer%xref no email%1,    Yves J.%Gschwind%xref no email%1,    Barbara%Pfenninger%xref no email%1,    Othmar%Bruegger%xref no email%1,    Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,          Close%Jacqueline%coreGivesNoEmail%1,          Cook%Wendy L.%coreGivesNoEmail%1,          Donaldson%Meghan G.%coreGivesNoEmail%1,          Graf%Peter%coreGivesNoEmail%1,          Khan%Karim M.%coreGivesNoEmail%1,          Liu-Ambrose%Teresa%coreGivesNoEmail%1,          Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,            Yasuyoshi%Asakawa%NULL%1,            Hideaki%Ishibashi%NULL%1,            Hiroaki%Fujita%NULL%1,            Tomoyuki%Arai%NULL%1,            Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,    J. E.%Layne%xref no email%1,    M. J.%Bernstein%xref no email%1,    A.%Nuernberger%xref no email%1,    C.%Castaneda%xref no email%1,    D.%Kaliton%xref no email%1,    J.%Hausdorff%xref no email%1,    J. O.%Judge%xref no email%1,    D. M.%Buchner%xref no email%1,    R.%Roubenoff%xref no email%1,    M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,            Polly M.%McGuigan%NULL%2,            Polly M.%McGuigan%NULL%0,            Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,            Evdokia%Billis%NULL%1,            Elias%Tsepis%NULL%1,            Zacharias%Dimitriadis%NULL%1,            Charalampos%Matzaroglou%NULL%1,            Minos%Tyllianakis%NULL%1,            Elias%Panagiotopoulos%NULL%1,            John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                Background and aims: Home-based exercise is a viable solution for frail elderly individuals with difficulties in reaching exercise facilities outside home.
+ The aim of this study was to determine the effects of a home-based video exercise program on physiological performance, functional capacity and health-related quality of life.
+ Methods: Community-dwelling frail women ≥75 yrs, receiving public home care, were randomized into a training group (n=30) and a control group (n=31).
+ Participants exercised for 26 minutes, three times per week for five months.
+ Both groups received a bi-weekly telephone call.
+ The effect of intervention was evaluated by the physical performance test, mobility-tiredness score, maximal isometric handgrip and biceps strength, lower limb explosive power, repeated chair rise (5 times), 10-m maximal walking-speed, semi-tandem balance, and health-related quality of life, as measured by EQ-5D and self-rated health.
+ Results: Twenty-five participants (83%) in the training group and 28 (90%) in the control group completed the project.
+ Adherence to the training protocol was on average 89.2%.
+ At follow-up, between-group analysis revealed a significant difference only in EQ-5D (valued by time-trade-off tariffs), resulting from a significant decrease observed in the control group and a trend towards an increase in the training group (p=0.082).
+ Significant within-group improvements, ranging from 8–35%, were also observed for the physical performance test, mobility-tiredness score, handgrip, biceps strength, chair rise, and 10-m maximal walking-speed in the training group, and for walking-speed and self-rated health in the control group.
+ Conclusions: These results suggest that home-based training for frail older women using an exercise video induces lasting health-related quality-of-life (EQ-5D).
+ In addition, a tendency towards improvements in physiological performance and functional capacity was observed.
+</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%0,  Christian%Kronborg%null%1,  Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1131,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1046,10 +1157,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1078,7 +1189,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1107,7 +1218,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1136,7 +1247,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1165,7 +1276,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1223,7 +1334,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1252,7 +1363,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1281,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1310,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1368,7 +1479,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1397,7 +1508,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1423,10 +1534,10 @@
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="224">
   <si>
     <t>Doi</t>
   </si>
@@ -782,6 +782,93 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%0,  Christian%Kronborg%null%1,  Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,             Tengku%Aizan Hamid%NULL%1,             Mohammad Nazrul%Hakim%NULL%1,             Reza%Chaman%NULL%1,             Seyed Abbas%Mousavi%NULL%1,             Lim%Poh Hin%NULL%1,             Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,             Shunsuke%Ohki%NULL%1,             Hirokazu%Takayama%NULL%1,             Yuji%Kobayashi%NULL%1,             Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Frail older adults are predisposed to multiple comorbidities and adverse events.
+ Recent interventional studies have shown that frailty can be improved and managed.
+ In this study, effective individualized home-based exercise and nutrition interventions were developed for reducing frailty in older adults.
+Methods
+This study was a four-arm, single-blind, randomized controlled trial conducted between October 2015 and June 2017 at Miaoli General Hospital in Taiwan.
+ Overall, 319 pre-frail or frail older adults were randomly assigned into one of the four study groups (control, exercise, nutrition, and exercise plus nutrition [combination]) and followed up during a 3-month intervention period and 3-month self-maintenance period.
+ Improvement in frailty scores was the primary outcome.
+ Secondary outcomes included improvements in physical performance and mental health.
+ The measurements were performed at baseline, 1 month, 3 months, and 6 months.
+Results
+At the 6-month measurement, the exercise (difference in frailty score change from baseline: − 0.23; 95% confidence interval [CI]: − 0.41, − 0.05; p = 0.012), nutrition (− 0.28; 95% CI: − 0.46, − 0.11; p = 0.002), and combination (− 0.34; 95% CI: − 0.52, − 0.16; p &amp;lt;  0.001) groups exhibited significantly greater improvements in the frailty scores than the control group.
+ Significant improvements were also observed in several physical performance parameters in the exercise, nutrition, and combination groups, as well as in the 12-Item Short Form Health Survey mental component summary score for the nutrition group.
+Conclusions
+The designated home-based exercise and nutrition interventions can help pre-frail or frail older adults to improve their frailty score and physical performance.
+Trial registration
+Retrospectively registered at ClinicalTrials.
+gov (identifier: NCT03477097); registration date: March 26, 2018.
+</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,             Shin-Chang%Su%maxmax0220@hotmail.com%1,             Chun-Wei%Chen%chunwei.peter@gmail.com%1,             Yaw-Wen%Kang%castle.kang@gmail.com%1,             Ming-Hsia%Hu%mhh@ntu.edu.tw%1,             Li-Lin%Hsu%llh@firdi.org.tw%1,             Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,             Likwang%Chen%likwang@nhri.edu.tw%1,             Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,             Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,             Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,             Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,     Denise%Kendrick%xref no email%1,     Richard%Morris%xref no email%1,     Mark%Griffin%xref no email%1,     Deborah%Haworth%xref no email%1,     Hannah%Carpenter%xref no email%1,     Tahir%Masud%xref no email%1,     Dawn A%Skelton%xref no email%1,     Susie%Dinan-Young%xref no email%1,     Ann%Bowling%xref no email%1,     Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,     Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,     Reto W.%Kressig%xref no email%1,     Thomas%Muehlbauer%xref no email%1,     Yves J.%Gschwind%xref no email%1,     Barbara%Pfenninger%xref no email%1,     Othmar%Bruegger%xref no email%1,     Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,           Close%Jacqueline%coreGivesNoEmail%1,           Cook%Wendy L.%coreGivesNoEmail%1,           Donaldson%Meghan G.%coreGivesNoEmail%1,           Graf%Peter%coreGivesNoEmail%1,           Khan%Karim M.%coreGivesNoEmail%1,           Liu-Ambrose%Teresa%coreGivesNoEmail%1,           Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,             Yasuyoshi%Asakawa%NULL%1,             Hideaki%Ishibashi%NULL%1,             Hiroaki%Fujita%NULL%1,             Tomoyuki%Arai%NULL%1,             Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,     J. E.%Layne%xref no email%1,     M. J.%Bernstein%xref no email%1,     A.%Nuernberger%xref no email%1,     C.%Castaneda%xref no email%1,     D.%Kaliton%xref no email%1,     J.%Hausdorff%xref no email%1,     J. O.%Judge%xref no email%1,     D. M.%Buchner%xref no email%1,     R.%Roubenoff%xref no email%1,     M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,             Polly M.%McGuigan%NULL%2,             Polly M.%McGuigan%NULL%0,             Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,             Evdokia%Billis%NULL%1,             Elias%Tsepis%NULL%1,             Zacharias%Dimitriadis%NULL%1,             Charalampos%Matzaroglou%NULL%1,             Minos%Tyllianakis%NULL%1,             Elias%Panagiotopoulos%NULL%1,             John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,              Tengku%Aizan Hamid%NULL%1,              Mohammad Nazrul%Hakim%NULL%1,              Reza%Chaman%NULL%1,              Seyed Abbas%Mousavi%NULL%1,              Lim%Poh Hin%NULL%1,              Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,              Shunsuke%Ohki%NULL%1,              Hirokazu%Takayama%NULL%1,              Yuji%Kobayashi%NULL%1,              Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,              Shin-Chang%Su%maxmax0220@hotmail.com%1,              Chun-Wei%Chen%chunwei.peter@gmail.com%1,              Yaw-Wen%Kang%castle.kang@gmail.com%1,              Ming-Hsia%Hu%mhh@ntu.edu.tw%1,              Li-Lin%Hsu%llh@firdi.org.tw%1,              Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,              Likwang%Chen%likwang@nhri.edu.tw%1,              Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,              Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,              Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,              Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,      Denise%Kendrick%xref no email%1,      Richard%Morris%xref no email%1,      Mark%Griffin%xref no email%1,      Deborah%Haworth%xref no email%1,      Hannah%Carpenter%xref no email%1,      Tahir%Masud%xref no email%1,      Dawn A%Skelton%xref no email%1,      Susie%Dinan-Young%xref no email%1,      Ann%Bowling%xref no email%1,      Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,      Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,      Reto W.%Kressig%xref no email%1,      Thomas%Muehlbauer%xref no email%1,      Yves J.%Gschwind%xref no email%1,      Barbara%Pfenninger%xref no email%1,      Othmar%Bruegger%xref no email%1,      Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,            Close%Jacqueline%coreGivesNoEmail%1,            Cook%Wendy L.%coreGivesNoEmail%1,            Donaldson%Meghan G.%coreGivesNoEmail%1,            Graf%Peter%coreGivesNoEmail%1,            Khan%Karim M.%coreGivesNoEmail%1,            Liu-Ambrose%Teresa%coreGivesNoEmail%1,            Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,              Yasuyoshi%Asakawa%NULL%1,              Hideaki%Ishibashi%NULL%1,              Hiroaki%Fujita%NULL%1,              Tomoyuki%Arai%NULL%1,              Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,      J. E.%Layne%xref no email%1,      M. J.%Bernstein%xref no email%1,      A.%Nuernberger%xref no email%1,      C.%Castaneda%xref no email%1,      D.%Kaliton%xref no email%1,      J.%Hausdorff%xref no email%1,      J. O.%Judge%xref no email%1,      D. M.%Buchner%xref no email%1,      R.%Roubenoff%xref no email%1,      M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,              Polly M.%McGuigan%NULL%2,              Polly M.%McGuigan%NULL%0,              Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,              Evdokia%Billis%NULL%1,              Elias%Tsepis%NULL%1,              Zacharias%Dimitriadis%NULL%1,              Charalampos%Matzaroglou%NULL%1,              Minos%Tyllianakis%NULL%1,              Elias%Panagiotopoulos%NULL%1,              John%Gliatis%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1218,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1160,7 +1247,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1189,7 +1276,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1215,10 +1302,10 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1247,7 +1334,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1276,7 +1363,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1334,7 +1421,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1363,7 +1450,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1392,7 +1479,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1421,7 +1508,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1479,7 +1566,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1508,7 +1595,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1537,7 +1624,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="235">
   <si>
     <t>Doi</t>
   </si>
@@ -869,6 +869,39 @@
   </si>
   <si>
     <t>[Maria%Tsekoura%NULL%1,              Evdokia%Billis%NULL%1,              Elias%Tsepis%NULL%1,              Zacharias%Dimitriadis%NULL%1,              Charalampos%Matzaroglou%NULL%1,              Minos%Tyllianakis%NULL%1,              Elias%Panagiotopoulos%NULL%1,              John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,               Tengku%Aizan Hamid%NULL%1,               Mohammad Nazrul%Hakim%NULL%1,               Reza%Chaman%NULL%1,               Seyed Abbas%Mousavi%NULL%1,               Lim%Poh Hin%NULL%1,               Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,               Shunsuke%Ohki%NULL%1,               Hirokazu%Takayama%NULL%1,               Yuji%Kobayashi%NULL%1,               Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,               Shin-Chang%Su%maxmax0220@hotmail.com%1,               Chun-Wei%Chen%chunwei.peter@gmail.com%1,               Yaw-Wen%Kang%castle.kang@gmail.com%1,               Ming-Hsia%Hu%mhh@ntu.edu.tw%1,               Li-Lin%Hsu%llh@firdi.org.tw%1,               Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,               Likwang%Chen%likwang@nhri.edu.tw%1,               Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,               Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,               Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,               Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,       Denise%Kendrick%xref no email%1,       Richard%Morris%xref no email%1,       Mark%Griffin%xref no email%1,       Deborah%Haworth%xref no email%1,       Hannah%Carpenter%xref no email%1,       Tahir%Masud%xref no email%1,       Dawn A%Skelton%xref no email%1,       Susie%Dinan-Young%xref no email%1,       Ann%Bowling%xref no email%1,       Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,       Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,       Reto W.%Kressig%xref no email%1,       Thomas%Muehlbauer%xref no email%1,       Yves J.%Gschwind%xref no email%1,       Barbara%Pfenninger%xref no email%1,       Othmar%Bruegger%xref no email%1,       Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,             Close%Jacqueline%coreGivesNoEmail%1,             Cook%Wendy L.%coreGivesNoEmail%1,             Donaldson%Meghan G.%coreGivesNoEmail%1,             Graf%Peter%coreGivesNoEmail%1,             Khan%Karim M.%coreGivesNoEmail%1,             Liu-Ambrose%Teresa%coreGivesNoEmail%1,             Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,               Yasuyoshi%Asakawa%NULL%1,               Hideaki%Ishibashi%NULL%1,               Hiroaki%Fujita%NULL%1,               Tomoyuki%Arai%NULL%1,               Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,       J. E.%Layne%xref no email%1,       M. J.%Bernstein%xref no email%1,       A.%Nuernberger%xref no email%1,       C.%Castaneda%xref no email%1,       D.%Kaliton%xref no email%1,       J.%Hausdorff%xref no email%1,       J. O.%Judge%xref no email%1,       D. M.%Buchner%xref no email%1,       R.%Roubenoff%xref no email%1,       M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,               Polly M.%McGuigan%NULL%2,               Polly M.%McGuigan%NULL%0,               Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,               Evdokia%Billis%NULL%1,               Elias%Tsepis%NULL%1,               Zacharias%Dimitriadis%NULL%1,               Charalampos%Matzaroglou%NULL%1,               Minos%Tyllianakis%NULL%1,               Elias%Panagiotopoulos%NULL%1,               John%Gliatis%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1251,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1247,7 +1280,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1276,7 +1309,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1305,7 +1338,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1334,7 +1367,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1363,7 +1396,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1421,7 +1454,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1450,7 +1483,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1479,7 +1512,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1508,7 +1541,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1566,7 +1599,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1595,7 +1628,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1624,7 +1657,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="248">
   <si>
     <t>Doi</t>
   </si>
@@ -902,6 +902,45 @@
   </si>
   <si>
     <t>[Maria%Tsekoura%NULL%1,               Evdokia%Billis%NULL%1,               Elias%Tsepis%NULL%1,               Zacharias%Dimitriadis%NULL%1,               Charalampos%Matzaroglou%NULL%1,               Minos%Tyllianakis%NULL%1,               Elias%Panagiotopoulos%NULL%1,               John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                Tengku%Aizan Hamid%NULL%1,                Mohammad Nazrul%Hakim%NULL%1,                Reza%Chaman%NULL%1,                Seyed Abbas%Mousavi%NULL%1,                Lim%Poh Hin%NULL%1,                Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,      Ann M.%Swartz%null%1,      Kevin G.%Keenan%null%1,      Amy E.%Harley%null%1,      Razia%Azen%null%1,      Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                Shunsuke%Ohki%NULL%1,                Hirokazu%Takayama%NULL%1,                Yuji%Kobayashi%NULL%1,                Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                Shin-Chang%Su%maxmax0220@hotmail.com%1,                Chun-Wei%Chen%chunwei.peter@gmail.com%1,                Yaw-Wen%Kang%castle.kang@gmail.com%1,                Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                Li-Lin%Hsu%llh@firdi.org.tw%1,                Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                Likwang%Chen%likwang@nhri.edu.tw%1,                Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,        Denise%Kendrick%xref no email%1,        Richard%Morris%xref no email%1,        Mark%Griffin%xref no email%1,        Deborah%Haworth%xref no email%1,        Hannah%Carpenter%xref no email%1,        Tahir%Masud%xref no email%1,        Dawn A%Skelton%xref no email%1,        Susie%Dinan-Young%xref no email%1,        Ann%Bowling%xref no email%1,        Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,        Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,        Reto W.%Kressig%xref no email%1,        Thomas%Muehlbauer%xref no email%1,        Yves J.%Gschwind%xref no email%1,        Barbara%Pfenninger%xref no email%1,        Othmar%Bruegger%xref no email%1,        Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,              Close%Jacqueline%coreGivesNoEmail%1,              Cook%Wendy L.%coreGivesNoEmail%1,              Donaldson%Meghan G.%coreGivesNoEmail%1,              Graf%Peter%coreGivesNoEmail%1,              Khan%Karim M.%coreGivesNoEmail%1,              Liu-Ambrose%Teresa%coreGivesNoEmail%1,              Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                Yasuyoshi%Asakawa%NULL%1,                Hideaki%Ishibashi%NULL%1,                Hiroaki%Fujita%NULL%1,                Tomoyuki%Arai%NULL%1,                Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,        J. E.%Layne%xref no email%1,        M. J.%Bernstein%xref no email%1,        A.%Nuernberger%xref no email%1,        C.%Castaneda%xref no email%1,        D.%Kaliton%xref no email%1,        J.%Hausdorff%xref no email%1,        J. O.%Judge%xref no email%1,        D. M.%Buchner%xref no email%1,        R.%Roubenoff%xref no email%1,        M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                Polly M.%McGuigan%NULL%2,                Polly M.%McGuigan%NULL%0,                Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                Evdokia%Billis%NULL%1,                Elias%Tsepis%NULL%1,                Zacharias%Dimitriadis%NULL%1,                Charalampos%Matzaroglou%NULL%1,                Minos%Tyllianakis%NULL%1,                Elias%Panagiotopoulos%NULL%1,                John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,      Christian%Kronborg%null%1,      Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1290,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1280,7 +1319,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1309,7 +1348,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1338,7 +1377,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1367,7 +1406,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1396,7 +1435,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1454,7 +1493,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1483,7 +1522,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1512,7 +1551,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1541,7 +1580,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1599,7 +1638,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1628,7 +1667,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1657,7 +1696,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>247</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="274">
   <si>
     <t>Doi</t>
   </si>
@@ -941,6 +941,84 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,      Christian%Kronborg%null%1,      Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                 Tengku%Aizan Hamid%NULL%1,                 Mohammad Nazrul%Hakim%NULL%1,                 Reza%Chaman%NULL%1,                 Seyed Abbas%Mousavi%NULL%1,                 Lim%Poh Hin%NULL%1,                 Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,       Ann M.%Swartz%null%1,       Kevin G.%Keenan%null%1,       Amy E.%Harley%null%1,       Razia%Azen%null%1,       Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                 Shunsuke%Ohki%NULL%1,                 Hirokazu%Takayama%NULL%1,                 Yuji%Kobayashi%NULL%1,                 Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                 Shin-Chang%Su%maxmax0220@hotmail.com%1,                 Chun-Wei%Chen%chunwei.peter@gmail.com%1,                 Yaw-Wen%Kang%castle.kang@gmail.com%1,                 Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                 Li-Lin%Hsu%llh@firdi.org.tw%1,                 Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                 Likwang%Chen%likwang@nhri.edu.tw%1,                 Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                 Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                 Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                 Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,         Denise%Kendrick%xref no email%1,         Richard%Morris%xref no email%1,         Mark%Griffin%xref no email%1,         Deborah%Haworth%xref no email%1,         Hannah%Carpenter%xref no email%1,         Tahir%Masud%xref no email%1,         Dawn A%Skelton%xref no email%1,         Susie%Dinan-Young%xref no email%1,         Ann%Bowling%xref no email%1,         Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,         Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,         Reto W.%Kressig%xref no email%1,         Thomas%Muehlbauer%xref no email%1,         Yves J.%Gschwind%xref no email%1,         Barbara%Pfenninger%xref no email%1,         Othmar%Bruegger%xref no email%1,         Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,               Close%Jacqueline%coreGivesNoEmail%1,               Cook%Wendy L.%coreGivesNoEmail%1,               Donaldson%Meghan G.%coreGivesNoEmail%1,               Graf%Peter%coreGivesNoEmail%1,               Khan%Karim M.%coreGivesNoEmail%1,               Liu-Ambrose%Teresa%coreGivesNoEmail%1,               Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                 Yasuyoshi%Asakawa%NULL%1,                 Hideaki%Ishibashi%NULL%1,                 Hiroaki%Fujita%NULL%1,                 Tomoyuki%Arai%NULL%1,                 Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,         J. E.%Layne%xref no email%1,         M. J.%Bernstein%xref no email%1,         A.%Nuernberger%xref no email%1,         C.%Castaneda%xref no email%1,         D.%Kaliton%xref no email%1,         J.%Hausdorff%xref no email%1,         J. O.%Judge%xref no email%1,         D. M.%Buchner%xref no email%1,         R.%Roubenoff%xref no email%1,         M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                 Polly M.%McGuigan%NULL%2,                 Polly M.%McGuigan%NULL%0,                 Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                 Evdokia%Billis%NULL%1,                 Elias%Tsepis%NULL%1,                 Zacharias%Dimitriadis%NULL%1,                 Charalampos%Matzaroglou%NULL%1,                 Minos%Tyllianakis%NULL%1,                 Elias%Panagiotopoulos%NULL%1,                 John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,       Christian%Kronborg%null%1,       Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                  Tengku%Aizan Hamid%NULL%1,                  Mohammad Nazrul%Hakim%NULL%1,                  Reza%Chaman%NULL%1,                  Seyed Abbas%Mousavi%NULL%1,                  Lim%Poh Hin%NULL%1,                  Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,        Ann M.%Swartz%null%1,        Kevin G.%Keenan%null%1,        Amy E.%Harley%null%1,        Razia%Azen%null%1,        Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                  Shunsuke%Ohki%NULL%1,                  Hirokazu%Takayama%NULL%1,                  Yuji%Kobayashi%NULL%1,                  Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                  Shin-Chang%Su%maxmax0220@hotmail.com%1,                  Chun-Wei%Chen%chunwei.peter@gmail.com%1,                  Yaw-Wen%Kang%castle.kang@gmail.com%1,                  Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                  Li-Lin%Hsu%llh@firdi.org.tw%1,                  Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                  Likwang%Chen%likwang@nhri.edu.tw%1,                  Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                  Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                  Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                  Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,          Denise%Kendrick%xref no email%1,          Richard%Morris%xref no email%1,          Mark%Griffin%xref no email%1,          Deborah%Haworth%xref no email%1,          Hannah%Carpenter%xref no email%1,          Tahir%Masud%xref no email%1,          Dawn A%Skelton%xref no email%1,          Susie%Dinan-Young%xref no email%1,          Ann%Bowling%xref no email%1,          Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,          Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,          Reto W.%Kressig%xref no email%1,          Thomas%Muehlbauer%xref no email%1,          Yves J.%Gschwind%xref no email%1,          Barbara%Pfenninger%xref no email%1,          Othmar%Bruegger%xref no email%1,          Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                Close%Jacqueline%coreGivesNoEmail%1,                Cook%Wendy L.%coreGivesNoEmail%1,                Donaldson%Meghan G.%coreGivesNoEmail%1,                Graf%Peter%coreGivesNoEmail%1,                Khan%Karim M.%coreGivesNoEmail%1,                Liu-Ambrose%Teresa%coreGivesNoEmail%1,                Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                  Yasuyoshi%Asakawa%NULL%1,                  Hideaki%Ishibashi%NULL%1,                  Hiroaki%Fujita%NULL%1,                  Tomoyuki%Arai%NULL%1,                  Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,          J. E.%Layne%xref no email%1,          M. J.%Bernstein%xref no email%1,          A.%Nuernberger%xref no email%1,          C.%Castaneda%xref no email%1,          D.%Kaliton%xref no email%1,          J.%Hausdorff%xref no email%1,          J. O.%Judge%xref no email%1,          D. M.%Buchner%xref no email%1,          R.%Roubenoff%xref no email%1,          M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                  Polly M.%McGuigan%NULL%2,                  Polly M.%McGuigan%NULL%0,                  Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                  Evdokia%Billis%NULL%1,                  Elias%Tsepis%NULL%1,                  Zacharias%Dimitriadis%NULL%1,                  Charalampos%Matzaroglou%NULL%1,                  Minos%Tyllianakis%NULL%1,                  Elias%Panagiotopoulos%NULL%1,                  John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,        Christian%Kronborg%null%1,        Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1368,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1319,7 +1397,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1348,7 +1426,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1377,7 +1455,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1406,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1435,7 +1513,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1493,7 +1571,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1522,7 +1600,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1551,7 +1629,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1580,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1638,7 +1716,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1667,7 +1745,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1696,7 +1774,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="287">
   <si>
     <t>Doi</t>
   </si>
@@ -1019,6 +1019,45 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,        Christian%Kronborg%null%1,        Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                   Tengku%Aizan Hamid%NULL%1,                   Mohammad Nazrul%Hakim%NULL%1,                   Reza%Chaman%NULL%1,                   Seyed Abbas%Mousavi%NULL%1,                   Lim%Poh Hin%NULL%1,                   Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,         Ann M.%Swartz%null%1,         Kevin G.%Keenan%null%1,         Amy E.%Harley%null%1,         Razia%Azen%null%1,         Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                   Shunsuke%Ohki%NULL%1,                   Hirokazu%Takayama%NULL%1,                   Yuji%Kobayashi%NULL%1,                   Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                   Shin-Chang%Su%maxmax0220@hotmail.com%1,                   Chun-Wei%Chen%chunwei.peter@gmail.com%1,                   Yaw-Wen%Kang%castle.kang@gmail.com%1,                   Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                   Li-Lin%Hsu%llh@firdi.org.tw%1,                   Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                   Likwang%Chen%likwang@nhri.edu.tw%1,                   Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                   Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                   Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                   Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,           Denise%Kendrick%xref no email%1,           Richard%Morris%xref no email%1,           Mark%Griffin%xref no email%1,           Deborah%Haworth%xref no email%1,           Hannah%Carpenter%xref no email%1,           Tahir%Masud%xref no email%1,           Dawn A%Skelton%xref no email%1,           Susie%Dinan-Young%xref no email%1,           Ann%Bowling%xref no email%1,           Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,           Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,           Reto W.%Kressig%xref no email%1,           Thomas%Muehlbauer%xref no email%1,           Yves J.%Gschwind%xref no email%1,           Barbara%Pfenninger%xref no email%1,           Othmar%Bruegger%xref no email%1,           Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                 Close%Jacqueline%coreGivesNoEmail%1,                 Cook%Wendy L.%coreGivesNoEmail%1,                 Donaldson%Meghan G.%coreGivesNoEmail%1,                 Graf%Peter%coreGivesNoEmail%1,                 Khan%Karim M.%coreGivesNoEmail%1,                 Liu-Ambrose%Teresa%coreGivesNoEmail%1,                 Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                   Yasuyoshi%Asakawa%NULL%1,                   Hideaki%Ishibashi%NULL%1,                   Hiroaki%Fujita%NULL%1,                   Tomoyuki%Arai%NULL%1,                   Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,           J. E.%Layne%xref no email%1,           M. J.%Bernstein%xref no email%1,           A.%Nuernberger%xref no email%1,           C.%Castaneda%xref no email%1,           D.%Kaliton%xref no email%1,           J.%Hausdorff%xref no email%1,           J. O.%Judge%xref no email%1,           D. M.%Buchner%xref no email%1,           R.%Roubenoff%xref no email%1,           M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                   Polly M.%McGuigan%NULL%2,                   Polly M.%McGuigan%NULL%0,                   Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                   Evdokia%Billis%NULL%1,                   Elias%Tsepis%NULL%1,                   Zacharias%Dimitriadis%NULL%1,                   Charalampos%Matzaroglou%NULL%1,                   Minos%Tyllianakis%NULL%1,                   Elias%Panagiotopoulos%NULL%1,                   John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,         Christian%Kronborg%null%1,         Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1397,7 +1436,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1426,7 +1465,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1455,7 +1494,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1484,7 +1523,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1513,7 +1552,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1571,7 +1610,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1600,7 +1639,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1629,7 +1668,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1658,7 +1697,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1716,7 +1755,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1745,7 +1784,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1774,7 +1813,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="303">
   <si>
     <t>Doi</t>
   </si>
@@ -1058,6 +1058,54 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,         Christian%Kronborg%null%1,         Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                    Tengku%Aizan Hamid%NULL%1,                    Mohammad Nazrul%Hakim%NULL%1,                    Reza%Chaman%NULL%1,                    Seyed Abbas%Mousavi%NULL%1,                    Lim%Poh Hin%NULL%1,                    Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,          Ann M.%Swartz%null%1,          Kevin G.%Keenan%null%1,          Amy E.%Harley%null%1,          Razia%Azen%null%1,          Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                    Shunsuke%Ohki%NULL%1,                    Hirokazu%Takayama%NULL%1,                    Yuji%Kobayashi%NULL%1,                    Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                    Shin-Chang%Su%maxmax0220@hotmail.com%1,                    Chun-Wei%Chen%chunwei.peter@gmail.com%1,                    Yaw-Wen%Kang%castle.kang@gmail.com%1,                    Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                    Li-Lin%Hsu%llh@firdi.org.tw%1,                    Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                    Likwang%Chen%likwang@nhri.edu.tw%1,                    Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                    Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                    Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                    Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,            Denise%Kendrick%xref no email%1,            Richard%Morris%xref no email%1,            Mark%Griffin%xref no email%1,            Deborah%Haworth%xref no email%1,            Hannah%Carpenter%xref no email%1,            Tahir%Masud%xref no email%1,            Dawn A%Skelton%xref no email%1,            Susie%Dinan-Young%xref no email%1,            Ann%Bowling%xref no email%1,            Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,            Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,            Reto W.%Kressig%xref no email%1,            Thomas%Muehlbauer%xref no email%1,            Yves J.%Gschwind%xref no email%1,            Barbara%Pfenninger%xref no email%1,            Othmar%Bruegger%xref no email%1,            Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                  Close%Jacqueline%coreGivesNoEmail%1,                  Cook%Wendy L.%coreGivesNoEmail%1,                  Donaldson%Meghan G.%coreGivesNoEmail%1,                  Graf%Peter%coreGivesNoEmail%1,                  Khan%Karim M.%coreGivesNoEmail%1,                  Liu-Ambrose%Teresa%coreGivesNoEmail%1,                  Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                    Yasuyoshi%Asakawa%NULL%1,                    Hideaki%Ishibashi%NULL%1,                    Hiroaki%Fujita%NULL%1,                    Tomoyuki%Arai%NULL%1,                    Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,            J. E.%Layne%xref no email%1,            M. J.%Bernstein%xref no email%1,            A.%Nuernberger%xref no email%1,            C.%Castaneda%xref no email%1,            D.%Kaliton%xref no email%1,            J.%Hausdorff%xref no email%1,            J. O.%Judge%xref no email%1,            D. M.%Buchner%xref no email%1,            R.%Roubenoff%xref no email%1,            M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                    Polly M.%McGuigan%NULL%2,                    Polly M.%McGuigan%NULL%0,                    Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                    Evdokia%Billis%NULL%1,                    Elias%Tsepis%NULL%1,                    Zacharias%Dimitriadis%NULL%1,                    Charalampos%Matzaroglou%NULL%1,                    Minos%Tyllianakis%NULL%1,                    Elias%Panagiotopoulos%NULL%1,                    John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,          Christian%Kronborg%null%1,          Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1455,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1419,7 +1467,7 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
@@ -1436,7 +1484,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1448,7 +1496,7 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
@@ -1465,7 +1513,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1477,7 +1525,7 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
@@ -1494,7 +1542,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1506,7 +1554,7 @@
         <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>105</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
@@ -1523,7 +1571,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1535,7 +1583,7 @@
         <v>145</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
@@ -1552,7 +1600,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1564,7 +1612,7 @@
         <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
@@ -1610,7 +1658,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1622,7 +1670,7 @@
         <v>145</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10">
@@ -1639,7 +1687,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1651,7 +1699,7 @@
         <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11">
@@ -1668,7 +1716,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1680,7 +1728,7 @@
         <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12">
@@ -1697,7 +1745,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1709,7 +1757,7 @@
         <v>156</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13">
@@ -1755,7 +1803,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1767,7 +1815,7 @@
         <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15">
@@ -1784,7 +1832,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1796,7 +1844,7 @@
         <v>64</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16">
@@ -1813,7 +1861,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1825,7 +1873,7 @@
         <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="316">
   <si>
     <t>Doi</t>
   </si>
@@ -1106,6 +1106,45 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,          Christian%Kronborg%null%1,          Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                     Tengku%Aizan Hamid%NULL%1,                     Mohammad Nazrul%Hakim%NULL%1,                     Reza%Chaman%NULL%1,                     Seyed Abbas%Mousavi%NULL%1,                     Lim%Poh Hin%NULL%1,                     Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,           Ann M.%Swartz%null%1,           Kevin G.%Keenan%null%1,           Amy E.%Harley%null%1,           Razia%Azen%null%1,           Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                     Shunsuke%Ohki%NULL%1,                     Hirokazu%Takayama%NULL%1,                     Yuji%Kobayashi%NULL%1,                     Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                     Shin-Chang%Su%maxmax0220@hotmail.com%1,                     Chun-Wei%Chen%chunwei.peter@gmail.com%1,                     Yaw-Wen%Kang%castle.kang@gmail.com%1,                     Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                     Li-Lin%Hsu%llh@firdi.org.tw%1,                     Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                     Likwang%Chen%likwang@nhri.edu.tw%1,                     Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                     Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                     Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                     Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%1,             Denise%Kendrick%xref no email%1,             Richard%Morris%xref no email%1,             Mark%Griffin%xref no email%1,             Deborah%Haworth%xref no email%1,             Hannah%Carpenter%xref no email%1,             Tahir%Masud%xref no email%1,             Dawn A%Skelton%xref no email%1,             Susie%Dinan-Young%xref no email%1,             Ann%Bowling%xref no email%1,             Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%1,             Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%1,             Reto W.%Kressig%xref no email%1,             Thomas%Muehlbauer%xref no email%1,             Yves J.%Gschwind%xref no email%1,             Barbara%Pfenninger%xref no email%1,             Othmar%Bruegger%xref no email%1,             Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                   Close%Jacqueline%coreGivesNoEmail%1,                   Cook%Wendy L.%coreGivesNoEmail%1,                   Donaldson%Meghan G.%coreGivesNoEmail%1,                   Graf%Peter%coreGivesNoEmail%1,                   Khan%Karim M.%coreGivesNoEmail%1,                   Liu-Ambrose%Teresa%coreGivesNoEmail%1,                   Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                     Yasuyoshi%Asakawa%NULL%1,                     Hideaki%Ishibashi%NULL%1,                     Hiroaki%Fujita%NULL%1,                     Tomoyuki%Arai%NULL%1,                     Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%1,             J. E.%Layne%xref no email%1,             M. J.%Bernstein%xref no email%1,             A.%Nuernberger%xref no email%1,             C.%Castaneda%xref no email%1,             D.%Kaliton%xref no email%1,             J.%Hausdorff%xref no email%1,             J. O.%Judge%xref no email%1,             D. M.%Buchner%xref no email%1,             R.%Roubenoff%xref no email%1,             M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                     Polly M.%McGuigan%NULL%2,                     Polly M.%McGuigan%NULL%0,                     Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                     Evdokia%Billis%NULL%1,                     Elias%Tsepis%NULL%1,                     Zacharias%Dimitriadis%NULL%1,                     Charalampos%Matzaroglou%NULL%1,                     Minos%Tyllianakis%NULL%1,                     Elias%Panagiotopoulos%NULL%1,                     John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,           Christian%Kronborg%null%1,           Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1455,7 +1494,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1484,7 +1523,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1513,7 +1552,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1542,7 +1581,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1571,7 +1610,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1600,7 +1639,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1658,7 +1697,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1687,7 +1726,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1716,7 +1755,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1745,7 +1784,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1803,7 +1842,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1832,7 +1871,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1861,7 +1900,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2433" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="373">
   <si>
     <t>Doi</t>
   </si>
@@ -1145,6 +1145,177 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,           Christian%Kronborg%null%1,           Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                      Tengku%Aizan Hamid%NULL%1,                      Mohammad Nazrul%Hakim%NULL%1,                      Reza%Chaman%NULL%1,                      Seyed Abbas%Mousavi%NULL%1,                      Lim%Poh Hin%NULL%1,                      Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,            Ann M.%Swartz%null%1,            Kevin G.%Keenan%null%1,            Amy E.%Harley%null%1,            Razia%Azen%null%1,            Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                      Shunsuke%Ohki%NULL%1,                      Hirokazu%Takayama%NULL%1,                      Yuji%Kobayashi%NULL%1,                      Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                      Shin-Chang%Su%maxmax0220@hotmail.com%1,                      Chun-Wei%Chen%chunwei.peter@gmail.com%1,                      Yaw-Wen%Kang%castle.kang@gmail.com%1,                      Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                      Li-Lin%Hsu%llh@firdi.org.tw%1,                      Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                      Likwang%Chen%likwang@nhri.edu.tw%1,                      Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                      Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                      Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                      Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Steve%Iliffe%xref no email%0, Denise%Kendrick%xref no email%1, Richard%Morris%xref no email%1, Mark%Griffin%xref no email%1, Deborah%Haworth%xref no email%1, Hannah%Carpenter%xref no email%1, Tahir%Masud%xref no email%1, Dawn A%Skelton%xref no email%1, Susie%Dinan-Young%xref no email%1, Ann%Bowling%xref no email%1, Heather%Gage%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-04</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Royal College of General Practitioners</t>
+  </si>
+  <si>
+    <t>[Nicole%Kahle%xref no email%0, Michael A.%Tevald%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-02</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Human Kinetics</t>
+  </si>
+  <si>
+    <t>[Andr\u00e9%Lacroix%xref no email%0, Reto W.%Kressig%xref no email%1, Thomas%Muehlbauer%xref no email%1, Yves J.%Gschwind%xref no email%1, Barbara%Pfenninger%xref no email%1, Othmar%Bruegger%xref no email%1, Urs%Granacher%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: S. Karger AG</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                    Close%Jacqueline%coreGivesNoEmail%1,                    Cook%Wendy L.%coreGivesNoEmail%1,                    Donaldson%Meghan G.%coreGivesNoEmail%1,                    Graf%Peter%coreGivesNoEmail%1,                    Khan%Karim M.%coreGivesNoEmail%1,                    Liu-Ambrose%Teresa%coreGivesNoEmail%1,                    Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                      Yasuyoshi%Asakawa%NULL%1,                      Hideaki%Ishibashi%NULL%1,                      Hiroaki%Fujita%NULL%1,                      Tomoyuki%Arai%NULL%1,                      Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[M. E.%Nelson%xref no email%0, J. E.%Layne%xref no email%1, M. J.%Bernstein%xref no email%1, A.%Nuernberger%xref no email%1, C.%Castaneda%xref no email%1, D.%Kaliton%xref no email%1, J.%Hausdorff%xref no email%1, J. O.%Judge%xref no email%1, D. M.%Buchner%xref no email%1, R.%Roubenoff%xref no email%1, M. A.%Fiatarone Singh%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-06-01</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Oxford University Press (OUP)</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                      Polly M.%McGuigan%NULL%2,                      Polly M.%McGuigan%NULL%0,                      Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                      Evdokia%Billis%NULL%1,                      Elias%Tsepis%NULL%1,                      Zacharias%Dimitriadis%NULL%1,                      Charalampos%Matzaroglou%NULL%1,                      Minos%Tyllianakis%NULL%1,                      Elias%Panagiotopoulos%NULL%1,                      John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,            Christian%Kronborg%null%1,            Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                       Tengku%Aizan Hamid%NULL%1,                       Mohammad Nazrul%Hakim%NULL%1,                       Reza%Chaman%NULL%1,                       Seyed Abbas%Mousavi%NULL%1,                       Lim%Poh Hin%NULL%1,                       Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,             Ann M.%Swartz%null%1,             Kevin G.%Keenan%null%1,             Amy E.%Harley%null%1,             Razia%Azen%null%1,             Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                       Shunsuke%Ohki%NULL%1,                       Hirokazu%Takayama%NULL%1,                       Yuji%Kobayashi%NULL%1,                       Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                       Shin-Chang%Su%maxmax0220@hotmail.com%1,                       Chun-Wei%Chen%chunwei.peter@gmail.com%1,                       Yaw-Wen%Kang%castle.kang@gmail.com%1,                       Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                       Li-Lin%Hsu%llh@firdi.org.tw%1,                       Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                       Likwang%Chen%likwang@nhri.edu.tw%1,                       Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                       Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                       Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                       Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                     Close%Jacqueline%coreGivesNoEmail%1,                     Cook%Wendy L.%coreGivesNoEmail%1,                     Donaldson%Meghan G.%coreGivesNoEmail%1,                     Graf%Peter%coreGivesNoEmail%1,                     Khan%Karim M.%coreGivesNoEmail%1,                     Liu-Ambrose%Teresa%coreGivesNoEmail%1,                     Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                       Yasuyoshi%Asakawa%NULL%1,                       Hideaki%Ishibashi%NULL%1,                       Hiroaki%Fujita%NULL%1,                       Tomoyuki%Arai%NULL%1,                       Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                       Polly M.%McGuigan%NULL%2,                       Polly M.%McGuigan%NULL%0,                       Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                       Evdokia%Billis%NULL%1,                       Elias%Tsepis%NULL%1,                       Zacharias%Dimitriadis%NULL%1,                       Charalampos%Matzaroglou%NULL%1,                       Minos%Tyllianakis%NULL%1,                       Elias%Panagiotopoulos%NULL%1,                       John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,             Christian%Kronborg%null%1,             Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                        Tengku%Aizan Hamid%NULL%1,                        Mohammad Nazrul%Hakim%NULL%1,                        Reza%Chaman%NULL%1,                        Seyed Abbas%Mousavi%NULL%1,                        Lim%Poh Hin%NULL%1,                        Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,              Ann M.%Swartz%null%1,              Kevin G.%Keenan%null%1,              Amy E.%Harley%null%1,              Razia%Azen%null%1,              Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                        Shunsuke%Ohki%NULL%1,                        Hirokazu%Takayama%NULL%1,                        Yuji%Kobayashi%NULL%1,                        Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                        Shin-Chang%Su%maxmax0220@hotmail.com%1,                        Chun-Wei%Chen%chunwei.peter@gmail.com%1,                        Yaw-Wen%Kang%castle.kang@gmail.com%1,                        Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                        Li-Lin%Hsu%llh@firdi.org.tw%1,                        Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                        Likwang%Chen%likwang@nhri.edu.tw%1,                        Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                        Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                        Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                        Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                      Close%Jacqueline%coreGivesNoEmail%1,                      Cook%Wendy L.%coreGivesNoEmail%1,                      Donaldson%Meghan G.%coreGivesNoEmail%1,                      Graf%Peter%coreGivesNoEmail%1,                      Khan%Karim M.%coreGivesNoEmail%1,                      Liu-Ambrose%Teresa%coreGivesNoEmail%1,                      Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                        Yasuyoshi%Asakawa%NULL%1,                        Hideaki%Ishibashi%NULL%1,                        Hiroaki%Fujita%NULL%1,                        Tomoyuki%Arai%NULL%1,                        Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                        Polly M.%McGuigan%NULL%2,                        Polly M.%McGuigan%NULL%0,                        Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                        Evdokia%Billis%NULL%1,                        Elias%Tsepis%NULL%1,                        Zacharias%Dimitriadis%NULL%1,                        Charalampos%Matzaroglou%NULL%1,                        Minos%Tyllianakis%NULL%1,                        Elias%Panagiotopoulos%NULL%1,                        John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,              Christian%Kronborg%null%1,              Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                         Tengku%Aizan Hamid%NULL%1,                         Mohammad Nazrul%Hakim%NULL%1,                         Reza%Chaman%NULL%1,                         Seyed Abbas%Mousavi%NULL%1,                         Lim%Poh Hin%NULL%1,                         Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,               Ann M.%Swartz%null%1,               Kevin G.%Keenan%null%1,               Amy E.%Harley%null%1,               Razia%Azen%null%1,               Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                         Shunsuke%Ohki%NULL%1,                         Hirokazu%Takayama%NULL%1,                         Yuji%Kobayashi%NULL%1,                         Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                         Shin-Chang%Su%maxmax0220@hotmail.com%1,                         Chun-Wei%Chen%chunwei.peter@gmail.com%1,                         Yaw-Wen%Kang%castle.kang@gmail.com%1,                         Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                         Li-Lin%Hsu%llh@firdi.org.tw%1,                         Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                         Likwang%Chen%likwang@nhri.edu.tw%1,                         Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                         Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                         Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                         Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                       Close%Jacqueline%coreGivesNoEmail%1,                       Cook%Wendy L.%coreGivesNoEmail%1,                       Donaldson%Meghan G.%coreGivesNoEmail%1,                       Graf%Peter%coreGivesNoEmail%1,                       Khan%Karim M.%coreGivesNoEmail%1,                       Liu-Ambrose%Teresa%coreGivesNoEmail%1,                       Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                         Yasuyoshi%Asakawa%NULL%1,                         Hideaki%Ishibashi%NULL%1,                         Hiroaki%Fujita%NULL%1,                         Tomoyuki%Arai%NULL%1,                         Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                         Polly M.%McGuigan%NULL%2,                         Polly M.%McGuigan%NULL%0,                         Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                         Evdokia%Billis%NULL%1,                         Elias%Tsepis%NULL%1,                         Zacharias%Dimitriadis%NULL%1,                         Charalampos%Matzaroglou%NULL%1,                         Minos%Tyllianakis%NULL%1,                         Elias%Panagiotopoulos%NULL%1,                         John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,               Christian%Kronborg%null%1,               Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                          Tengku%Aizan Hamid%NULL%1,                          Mohammad Nazrul%Hakim%NULL%1,                          Reza%Chaman%NULL%1,                          Seyed Abbas%Mousavi%NULL%1,                          Lim%Poh Hin%NULL%1,                          Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,                Ann M.%Swartz%null%1,                Kevin G.%Keenan%null%1,                Amy E.%Harley%null%1,                Razia%Azen%null%1,                Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                          Shunsuke%Ohki%NULL%1,                          Hirokazu%Takayama%NULL%1,                          Yuji%Kobayashi%NULL%1,                          Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                          Shin-Chang%Su%maxmax0220@hotmail.com%1,                          Chun-Wei%Chen%chunwei.peter@gmail.com%1,                          Yaw-Wen%Kang%castle.kang@gmail.com%1,                          Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                          Li-Lin%Hsu%llh@firdi.org.tw%1,                          Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                          Likwang%Chen%likwang@nhri.edu.tw%1,                          Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                          Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                          Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                          Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                        Close%Jacqueline%coreGivesNoEmail%1,                        Cook%Wendy L.%coreGivesNoEmail%1,                        Donaldson%Meghan G.%coreGivesNoEmail%1,                        Graf%Peter%coreGivesNoEmail%1,                        Khan%Karim M.%coreGivesNoEmail%1,                        Liu-Ambrose%Teresa%coreGivesNoEmail%1,                        Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                          Yasuyoshi%Asakawa%NULL%1,                          Hideaki%Ishibashi%NULL%1,                          Hiroaki%Fujita%NULL%1,                          Tomoyuki%Arai%NULL%1,                          Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                          Polly M.%McGuigan%NULL%2,                          Polly M.%McGuigan%NULL%0,                          Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                          Evdokia%Billis%NULL%1,                          Elias%Tsepis%NULL%1,                          Zacharias%Dimitriadis%NULL%1,                          Charalampos%Matzaroglou%NULL%1,                          Minos%Tyllianakis%NULL%1,                          Elias%Panagiotopoulos%NULL%1,                          John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,                Christian%Kronborg%null%1,                Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1479,6 +1650,9 @@
       <c r="I1" t="s">
         <v>98</v>
       </c>
+      <c r="J1" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1494,7 +1668,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1507,6 +1681,9 @@
       </c>
       <c r="I2" t="s">
         <v>288</v>
+      </c>
+      <c r="J2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -1523,7 +1700,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>365</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1536,6 +1713,9 @@
       </c>
       <c r="I3" t="s">
         <v>290</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -1552,7 +1732,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1565,6 +1745,9 @@
       </c>
       <c r="I4" t="s">
         <v>288</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -1581,7 +1764,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>367</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1594,6 +1777,9 @@
       </c>
       <c r="I5" t="s">
         <v>293</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6">
@@ -1610,7 +1796,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1619,10 +1805,13 @@
         <v>144</v>
       </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7">
@@ -1639,7 +1828,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1648,10 +1837,13 @@
         <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>325</v>
       </c>
       <c r="I7" t="s">
-        <v>290</v>
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="8">
@@ -1682,6 +1874,9 @@
       <c r="I8" t="s">
         <v>102</v>
       </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
@@ -1697,7 +1892,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1706,10 +1901,13 @@
         <v>144</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
-        <v>290</v>
+        <v>102</v>
+      </c>
+      <c r="J9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="10">
@@ -1726,7 +1924,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>310</v>
+        <v>368</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1739,6 +1937,9 @@
       </c>
       <c r="I10" t="s">
         <v>290</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -1755,7 +1956,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1768,6 +1969,9 @@
       </c>
       <c r="I11" t="s">
         <v>288</v>
+      </c>
+      <c r="J11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12">
@@ -1784,7 +1988,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -1793,10 +1997,13 @@
         <v>144</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>332</v>
       </c>
       <c r="I12" t="s">
-        <v>290</v>
+        <v>102</v>
+      </c>
+      <c r="J12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="13">
@@ -1827,6 +2034,9 @@
       <c r="I13" t="s">
         <v>102</v>
       </c>
+      <c r="J13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1842,7 +2052,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -1855,6 +2065,9 @@
       </c>
       <c r="I14" t="s">
         <v>288</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -1871,7 +2084,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -1884,6 +2097,9 @@
       </c>
       <c r="I15" t="s">
         <v>288</v>
+      </c>
+      <c r="J15" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="16">
@@ -1900,7 +2116,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>315</v>
+        <v>372</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -1913,6 +2129,9 @@
       </c>
       <c r="I16" t="s">
         <v>290</v>
+      </c>
+      <c r="J16" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/77.xlsx
+++ b/Covid_19_Dataset_and_References/References/77.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3329" uniqueCount="391">
   <si>
     <t>Doi</t>
   </si>
@@ -1316,6 +1316,60 @@
   </si>
   <si>
     <t>[ Sonja%Vestergaard%null%1,                Christian%Kronborg%null%1,                Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                           Tengku%Aizan Hamid%NULL%1,                           Mohammad Nazrul%Hakim%NULL%1,                           Reza%Chaman%NULL%1,                           Seyed Abbas%Mousavi%NULL%1,                           Lim%Poh Hin%NULL%1,                           Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,                 Ann M.%Swartz%null%1,                 Kevin G.%Keenan%null%1,                 Amy E.%Harley%null%1,                 Razia%Azen%null%1,                 Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                           Shunsuke%Ohki%NULL%1,                           Hirokazu%Takayama%NULL%1,                           Yuji%Kobayashi%NULL%1,                           Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                           Shin-Chang%Su%maxmax0220@hotmail.com%1,                           Chun-Wei%Chen%chunwei.peter@gmail.com%1,                           Yaw-Wen%Kang%castle.kang@gmail.com%1,                           Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                           Li-Lin%Hsu%llh@firdi.org.tw%1,                           Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                           Likwang%Chen%likwang@nhri.edu.tw%1,                           Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                           Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                           Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                           Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                         Close%Jacqueline%coreGivesNoEmail%1,                         Cook%Wendy L.%coreGivesNoEmail%1,                         Donaldson%Meghan G.%coreGivesNoEmail%1,                         Graf%Peter%coreGivesNoEmail%1,                         Khan%Karim M.%coreGivesNoEmail%1,                         Liu-Ambrose%Teresa%coreGivesNoEmail%1,                         Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                           Yasuyoshi%Asakawa%NULL%1,                           Hideaki%Ishibashi%NULL%1,                           Hiroaki%Fujita%NULL%1,                           Tomoyuki%Arai%NULL%1,                           Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                           Polly M.%McGuigan%NULL%2,                           Polly M.%McGuigan%NULL%0,                           Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                           Evdokia%Billis%NULL%1,                           Elias%Tsepis%NULL%1,                           Zacharias%Dimitriadis%NULL%1,                           Charalampos%Matzaroglou%NULL%1,                           Minos%Tyllianakis%NULL%1,                           Elias%Panagiotopoulos%NULL%1,                           John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,                 Christian%Kronborg%null%1,                 Lis%Puggaard%null%1]</t>
+  </si>
+  <si>
+    <t>[Ali%Dadgari%NULL%1,                            Tengku%Aizan Hamid%NULL%1,                            Mohammad Nazrul%Hakim%NULL%1,                            Reza%Chaman%NULL%1,                            Seyed Abbas%Mousavi%NULL%1,                            Lim%Poh Hin%NULL%1,                            Leila%Dadvar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Christopher J.%Dondzila%null%1,                  Ann M.%Swartz%null%1,                  Kevin G.%Keenan%null%1,                  Amy E.%Harley%null%1,                  Razia%Azen%null%1,                  Scott J.%Strath%null%1]</t>
+  </si>
+  <si>
+    <t>[Ryoichi%Ema%NULL%1,                            Shunsuke%Ohki%NULL%1,                            Hirokazu%Takayama%NULL%1,                            Yuji%Kobayashi%NULL%1,                            Ryota%Akagi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tsung-Jen%Hsieh%tjhsieh@nhri.edu.tw%1,                            Shin-Chang%Su%maxmax0220@hotmail.com%1,                            Chun-Wei%Chen%chunwei.peter@gmail.com%1,                            Yaw-Wen%Kang%castle.kang@gmail.com%1,                            Ming-Hsia%Hu%mhh@ntu.edu.tw%1,                            Li-Lin%Hsu%llh@firdi.org.tw%1,                            Szu-Yun%Wu%s.wu@ibms.sinica.edu.tw%1,                            Likwang%Chen%likwang@nhri.edu.tw%1,                            Hsing-Yi%Chang%hsingyi@nhri.edu.tw%1,                            Shao-Yuan%Chuang%chuangsy@nhri.edu.tw%1,                            Wen-Harn%Pan%pan@ibms.sinica.edu.tw%1,                            Chih-Cheng%Hsu%cch@nhri.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Ahamed%Yasmin%coreGivesNoEmail%1,                          Close%Jacqueline%coreGivesNoEmail%1,                          Cook%Wendy L.%coreGivesNoEmail%1,                          Donaldson%Meghan G.%coreGivesNoEmail%1,                          Graf%Peter%coreGivesNoEmail%1,                          Khan%Karim M.%coreGivesNoEmail%1,                          Liu-Ambrose%Teresa%coreGivesNoEmail%1,                          Lord%Stephen R.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Kohei%Maruya%NULL%1,                            Yasuyoshi%Asakawa%NULL%1,                            Hideaki%Ishibashi%NULL%1,                            Hiroaki%Fujita%NULL%1,                            Tomoyuki%Arai%NULL%1,                            Haruyasu%Yamaguchi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Oliver J.%Perkin%o.j.perkin@bath.ac.uk%1,                            Polly M.%McGuigan%NULL%2,                            Polly M.%McGuigan%NULL%0,                            Keith A.%Stokes%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Maria%Tsekoura%NULL%1,                            Evdokia%Billis%NULL%1,                            Elias%Tsepis%NULL%1,                            Zacharias%Dimitriadis%NULL%1,                            Charalampos%Matzaroglou%NULL%1,                            Minos%Tyllianakis%NULL%1,                            Elias%Panagiotopoulos%NULL%1,                            John%Gliatis%NULL%1]</t>
+  </si>
+  <si>
+    <t>[ Sonja%Vestergaard%null%1,                  Christian%Kronborg%null%1,                  Lis%Puggaard%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1722,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1700,7 +1754,7 @@
         <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -1732,7 +1786,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1764,7 +1818,7 @@
         <v>203</v>
       </c>
       <c r="E5" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="F5" t="s">
         <v>47</v>
@@ -1796,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -1828,7 +1882,7 @@
         <v>147</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1892,7 +1946,7 @@
         <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -1924,7 +1978,7 @@
         <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1956,7 +2010,7 @@
         <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="F11" t="s">
         <v>53</v>
@@ -1988,7 +2042,7 @@
         <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
@@ -2052,7 +2106,7 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
         <v>58</v>
@@ -2084,7 +2138,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="F15" t="s">
         <v>63</v>
@@ -2116,7 +2170,7 @@
         <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
